--- a/src/assets/uploads/documents/contacts/7F38dupbxeXHWImhLbtH/upload-contacts.xlsx
+++ b/src/assets/uploads/documents/contacts/7F38dupbxeXHWImhLbtH/upload-contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>firstname</t>
   </si>
@@ -36,65 +36,101 @@
     <t>phone</t>
   </si>
   <si>
-    <t>tags</t>
+    <t>add_tags</t>
   </si>
   <si>
     <t>address</t>
   </si>
   <si>
-    <t>lists</t>
+    <t>subscribe_lists</t>
   </si>
   <si>
-    <t>Devin</t>
+    <t>Devin1</t>
+  </si>
+  <si>
+    <t>last1</t>
   </si>
   <si>
     <t>Devinmiller289@gmail.com</t>
   </si>
   <si>
-    <t>singh</t>
-  </si>
-  <si>
-    <t/>
+    <t>singh1</t>
   </si>
   <si>
     <t>Campaign1_1-100</t>
   </si>
   <si>
-    <t>test address</t>
+    <t>test address1</t>
   </si>
   <si>
     <t>BF-Database</t>
   </si>
   <si>
+    <t>Devin2</t>
+  </si>
+  <si>
+    <t>last2</t>
+  </si>
+  <si>
     <t>Devinmoore993@gmail.com</t>
+  </si>
+  <si>
+    <t>singh2</t>
+  </si>
+  <si>
+    <t>test address2</t>
+  </si>
+  <si>
+    <t>Devin3</t>
+  </si>
+  <si>
+    <t>last3</t>
   </si>
   <si>
     <t>Devinneal123@gmail.com</t>
   </si>
   <si>
+    <t>singh3</t>
+  </si>
+  <si>
+    <t>test address3</t>
+  </si>
+  <si>
+    <t>Devin4</t>
+  </si>
+  <si>
+    <t>last4</t>
+  </si>
+  <si>
     <t>Devinnixonn@gmail.com</t>
+  </si>
+  <si>
+    <t>singh4</t>
+  </si>
+  <si>
+    <t>test address4</t>
+  </si>
+  <si>
+    <t>Devin5</t>
+  </si>
+  <si>
+    <t>last5</t>
   </si>
   <si>
     <t>Devinnunley22@gmail.com</t>
   </si>
   <si>
-    <t>Devi</t>
+    <t>singh5</t>
   </si>
   <si>
-    <t>Devinortiz23@gmail.com</t>
-  </si>
-  <si>
-    <t>devin</t>
-  </si>
-  <si>
-    <t>Devinpalmer100@icloud.com</t>
+    <t>test address5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -106,17 +142,28 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F1F1F"/>
+        <bgColor rgb="FF1F1F1F"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,15 +172,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -356,7 +406,8 @@
     <col customWidth="1" min="3" max="4" width="22.33"/>
     <col customWidth="1" min="5" max="6" width="8.56"/>
     <col customWidth="1" min="7" max="7" width="15.78"/>
-    <col customWidth="1" min="8" max="9" width="8.56"/>
+    <col customWidth="1" min="8" max="8" width="9.67"/>
+    <col customWidth="1" min="9" max="9" width="8.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -366,22 +417,22 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -389,28 +440,28 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>121.0</v>
+      <c r="C2" s="3">
+        <v>123.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>858552.0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -418,178 +469,142 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
       </c>
-      <c r="C3" s="2">
-        <v>121.0</v>
+      <c r="C3" s="3">
+        <v>147.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" s="3">
+        <v>4852.0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>121.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+      <c r="F4" s="3">
+        <v>9652.0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+      <c r="A5" s="3" t="s">
+        <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
       </c>
-      <c r="C5" s="2">
-        <v>121.0</v>
+      <c r="C5" s="3">
+        <v>258.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
+      <c r="F5" s="3">
+        <v>7532.0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+      <c r="A6" s="3" t="s">
+        <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
       </c>
-      <c r="C6" s="2">
-        <v>121.0</v>
+      <c r="C6" s="3">
+        <v>369.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
+      <c r="F6" s="3">
+        <v>369.0</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>121.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>121.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
@@ -11231,8 +11246,8 @@
     <row r="976" ht="14.25" customHeight="1">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
-      <c r="C976" s="3"/>
-      <c r="D976" s="3"/>
+      <c r="C976" s="4"/>
+      <c r="D976" s="4"/>
       <c r="E976" s="1"/>
       <c r="F976" s="1"/>
       <c r="G976" s="1"/>
